--- a/Dish Excel Document.xlsx
+++ b/Dish Excel Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\A2\Unity\Cooking_Clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{499E9CED-6DAC-47F0-B851-D81B88DB173B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F77DDCB-771E-4D47-8462-7CC202361CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19305" yWindow="-435" windowWidth="19410" windowHeight="20985" xr2:uid="{FBB31979-A78A-4D7A-9C52-45433E30BBAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Tomato</t>
   </si>
@@ -81,6 +81,72 @@
   </si>
   <si>
     <t>Egg</t>
+  </si>
+  <si>
+    <t>Barbecue</t>
+  </si>
+  <si>
+    <t>Boite a pate</t>
+  </si>
+  <si>
+    <t>Italian style duck</t>
+  </si>
+  <si>
+    <t>Meat feast</t>
+  </si>
+  <si>
+    <t>Progt au beurre</t>
+  </si>
+  <si>
+    <t>Salad</t>
+  </si>
+  <si>
+    <t>Furnace</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>Cooking Pot</t>
+  </si>
+  <si>
+    <t>Blender</t>
+  </si>
+  <si>
+    <t>Fryer</t>
+  </si>
+  <si>
+    <t>Plancha</t>
+  </si>
+  <si>
+    <t>Grill</t>
+  </si>
+  <si>
+    <t>Microwave</t>
+  </si>
+  <si>
+    <t>Fridge</t>
+  </si>
+  <si>
+    <t>Potato and Pea Pancake Delight</t>
+  </si>
+  <si>
+    <t>Velvety Carrot and Ginger Soup</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Crispy Chicken and Potato Croquettes</t>
+  </si>
+  <si>
+    <t>Creamy Beef and Rice</t>
+  </si>
+  <si>
+    <t>Tomato blender Gazpacho</t>
+  </si>
+  <si>
+    <t>Plancha-seared Veal Medallions</t>
   </si>
 </sst>
 </file>
@@ -96,15 +162,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,12 +196,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,59 +535,1145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19068C32-9D69-4585-A414-993633583C8F}">
-  <dimension ref="C2:Q2"/>
+  <dimension ref="B2:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="37.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2">
+        <v>1</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <f>SUM(C3:C33)</f>
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:Q34" si="0">SUM(D3:D33)</f>
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <f t="shared" ref="S34" si="1">SUM(S3:S33)</f>
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ref="T34" si="2">SUM(T3:T33)</f>
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ref="U34" si="3">SUM(U3:U33)</f>
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <f t="shared" ref="V34" si="4">SUM(V3:V33)</f>
+        <v>2</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34" si="5">SUM(W3:W33)</f>
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34" si="6">SUM(X3:X33)</f>
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" ref="Y34" si="7">SUM(Y3:Y33)</f>
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" ref="Z34" si="8">SUM(Z3:Z33)</f>
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" ref="AA34" si="9">SUM(AA3:AA33)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Dish Excel Document.xlsx
+++ b/Dish Excel Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\A2\Unity\Cooking_Clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F77DDCB-771E-4D47-8462-7CC202361CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED5D3AA-AB6D-44B9-B628-C4663103C6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19305" yWindow="-435" windowWidth="19410" windowHeight="20985" xr2:uid="{FBB31979-A78A-4D7A-9C52-45433E30BBAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Tomato</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>Plancha-seared Veal Medallions</t>
+  </si>
+  <si>
+    <t>Blender sheep and Tomato Pasta Sauce</t>
+  </si>
+  <si>
+    <t>Milk and Butter Rice Pudding</t>
+  </si>
+  <si>
+    <t>Fried eggplant and tomato stack</t>
   </si>
 </sst>
 </file>
@@ -215,10 +224,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -537,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19068C32-9D69-4585-A414-993633583C8F}">
   <dimension ref="B2:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="C17" activeCellId="1" sqref="Q17 C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -624,27 +634,27 @@
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -661,25 +671,25 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5">
         <v>2</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="5">
         <v>1</v>
       </c>
       <c r="S4" s="2"/>
@@ -698,27 +708,27 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2">
@@ -735,29 +745,29 @@
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
       <c r="S6" s="2">
         <v>1</v>
       </c>
@@ -774,25 +784,25 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
       <c r="S7" s="2">
         <v>1</v>
       </c>
@@ -809,29 +819,29 @@
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -848,27 +858,27 @@
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="4">
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5">
         <v>1</v>
       </c>
       <c r="S9" s="2"/>
@@ -887,27 +897,27 @@
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="4">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
       <c r="S10" s="2">
         <v>1</v>
       </c>
@@ -924,27 +934,27 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4">
+      <c r="C11" s="4"/>
+      <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -961,25 +971,25 @@
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5">
         <v>3</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="4">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5">
         <v>1</v>
       </c>
       <c r="S12" s="2"/>
@@ -998,23 +1008,23 @@
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -1031,25 +1041,25 @@
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
         <v>2</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1063,26 +1073,34 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
+      <c r="V15" s="2">
+        <v>1</v>
+      </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -1090,24 +1108,34 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5">
+        <v>2</v>
+      </c>
+      <c r="N16" s="5">
+        <v>3</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -1117,27 +1145,35 @@
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5">
+        <v>2</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
+      <c r="W17" s="2">
+        <v>1</v>
+      </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
@@ -1145,21 +1181,21 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1172,21 +1208,21 @@
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -1199,21 +1235,21 @@
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1226,21 +1262,21 @@
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1253,21 +1289,21 @@
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -1280,21 +1316,21 @@
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -1307,21 +1343,21 @@
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -1334,21 +1370,21 @@
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -1361,21 +1397,21 @@
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -1388,21 +1424,21 @@
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -1415,21 +1451,21 @@
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -1442,21 +1478,21 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -1469,21 +1505,21 @@
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -1496,21 +1532,21 @@
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -1523,21 +1559,21 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -1550,21 +1586,21 @@
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -1581,7 +1617,7 @@
       </c>
       <c r="C34">
         <f>SUM(C3:C33)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <f t="shared" ref="D34:Q34" si="0">SUM(D3:D33)</f>
@@ -1617,19 +1653,19 @@
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34">
         <f t="shared" si="0"/>
@@ -1637,7 +1673,7 @@
       </c>
       <c r="Q34">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S34">
         <f t="shared" ref="S34" si="1">SUM(S3:S33)</f>
@@ -1645,7 +1681,7 @@
       </c>
       <c r="T34">
         <f t="shared" ref="T34" si="2">SUM(T3:T33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U34">
         <f t="shared" ref="U34" si="3">SUM(U3:U33)</f>
@@ -1653,11 +1689,11 @@
       </c>
       <c r="V34">
         <f t="shared" ref="V34" si="4">SUM(V3:V33)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W34">
         <f t="shared" ref="W34" si="5">SUM(W3:W33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X34">
         <f t="shared" ref="X34" si="6">SUM(X3:X33)</f>

--- a/Dish Excel Document.xlsx
+++ b/Dish Excel Document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\A2\Unity\Cooking_Clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED5D3AA-AB6D-44B9-B628-C4663103C6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02138ED9-BCAB-4795-B995-F0E16BC5ADE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="-435" windowWidth="19410" windowHeight="20985" xr2:uid="{FBB31979-A78A-4D7A-9C52-45433E30BBAE}"/>
+    <workbookView xWindow="-38520" yWindow="-555" windowWidth="38640" windowHeight="21120" xr2:uid="{FBB31979-A78A-4D7A-9C52-45433E30BBAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Tomato</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>Fried eggplant and tomato stack</t>
+  </si>
+  <si>
+    <t>Shepherd's Pie Extravaganza</t>
+  </si>
+  <si>
+    <t>Grilled eggplant and sheep stack</t>
+  </si>
+  <si>
+    <t>Creamy beef and vegetable one-pot pasta</t>
+  </si>
+  <si>
+    <t>Fridge Pasta Salad</t>
+  </si>
+  <si>
+    <t>Pea and duck microwave risotto</t>
+  </si>
+  <si>
+    <t>Plancha-seared veal and bean salad</t>
   </si>
 </sst>
 </file>
@@ -224,13 +242,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19068C32-9D69-4585-A414-993633583C8F}">
   <dimension ref="B2:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="C17" activeCellId="1" sqref="Q17 C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,27 +653,27 @@
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -671,25 +690,25 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="5">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="4">
         <v>1</v>
       </c>
       <c r="S4" s="2"/>
@@ -708,27 +727,27 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2">
@@ -745,29 +764,29 @@
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
       <c r="S6" s="2">
         <v>1</v>
       </c>
@@ -784,25 +803,25 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
       <c r="S7" s="2">
         <v>1</v>
       </c>
@@ -819,29 +838,29 @@
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -858,27 +877,27 @@
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4">
         <v>1</v>
       </c>
       <c r="S9" s="2"/>
@@ -897,27 +916,27 @@
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
       <c r="S10" s="2">
         <v>1</v>
       </c>
@@ -934,27 +953,27 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -971,25 +990,25 @@
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="5">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4">
         <v>1</v>
       </c>
       <c r="S12" s="2"/>
@@ -1008,23 +1027,23 @@
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>3</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -1041,25 +1060,25 @@
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1073,28 +1092,28 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>3</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1108,30 +1127,30 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="5">
-        <v>2</v>
-      </c>
-      <c r="N16" s="5">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4">
         <v>3</v>
       </c>
-      <c r="O16" s="5">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2">
         <v>1</v>
@@ -1145,26 +1164,26 @@
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="5">
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4">
         <v>2</v>
       </c>
       <c r="S17" s="2"/>
@@ -1180,24 +1199,34 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="T18" s="2">
+        <v>1</v>
+      </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -1207,52 +1236,72 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="4">
+        <v>2</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -1261,22 +1310,30 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="3"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1285,25 +1342,35 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
+      <c r="AA21" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -1311,53 +1378,63 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+      <c r="Z22" s="2">
+        <v>1</v>
+      </c>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
+      <c r="X23" s="2">
+        <v>1</v>
+      </c>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -1370,21 +1447,21 @@
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -1397,21 +1474,21 @@
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -1424,21 +1501,21 @@
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -1451,21 +1528,21 @@
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -1478,21 +1555,21 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -1505,21 +1582,21 @@
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -1532,21 +1609,21 @@
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -1559,21 +1636,21 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -1586,21 +1663,21 @@
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -1621,39 +1698,39 @@
       </c>
       <c r="D34">
         <f t="shared" ref="D34:Q34" si="0">SUM(D3:D33)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M34">
         <f t="shared" si="0"/>
@@ -1665,15 +1742,15 @@
       </c>
       <c r="O34">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P34">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q34">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S34">
         <f t="shared" ref="S34" si="1">SUM(S3:S33)</f>
@@ -1681,11 +1758,11 @@
       </c>
       <c r="T34">
         <f t="shared" ref="T34" si="2">SUM(T3:T33)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U34">
         <f t="shared" ref="U34" si="3">SUM(U3:U33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V34">
         <f t="shared" ref="V34" si="4">SUM(V3:V33)</f>
@@ -1697,19 +1774,19 @@
       </c>
       <c r="X34">
         <f t="shared" ref="X34" si="6">SUM(X3:X33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y34">
         <f t="shared" ref="Y34" si="7">SUM(Y3:Y33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z34">
         <f t="shared" ref="Z34" si="8">SUM(Z3:Z33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA34">
         <f t="shared" ref="AA34" si="9">SUM(AA3:AA33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Dish Excel Document.xlsx
+++ b/Dish Excel Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\A2\Unity\Cooking_Clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02138ED9-BCAB-4795-B995-F0E16BC5ADE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB52AFC-C399-4842-93D4-AC262DE1FBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-555" windowWidth="38640" windowHeight="21120" xr2:uid="{FBB31979-A78A-4D7A-9C52-45433E30BBAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Tomato</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Plancha-seared veal and bean salad</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -242,13 +245,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -564,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19068C32-9D69-4585-A414-993633583C8F}">
-  <dimension ref="B2:AA34"/>
+  <dimension ref="A2:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,7 +577,7 @@
     <col min="2" max="2" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -686,7 +688,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -723,7 +725,7 @@
       </c>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -760,7 +762,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -799,7 +801,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
@@ -834,7 +836,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
@@ -873,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
@@ -912,7 +914,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
@@ -949,7 +951,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
@@ -986,7 +988,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1023,7 +1025,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1056,7 +1058,10 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1091,7 +1096,7 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1126,7 +1131,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1199,7 +1204,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="3"/>
@@ -1236,7 +1241,7 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3"/>
@@ -1252,9 +1257,9 @@
         <v>1</v>
       </c>
       <c r="M19" s="3"/>
-      <c r="N19" s="6"/>
+      <c r="N19" s="5"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="6"/>
+      <c r="P19" s="5"/>
       <c r="Q19" s="4">
         <v>2</v>
       </c>
@@ -1271,7 +1276,7 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="3"/>
@@ -1310,7 +1315,7 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="3"/>
@@ -1347,7 +1352,7 @@
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="3"/>
@@ -1384,7 +1389,7 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="3"/>
